--- a/biology/Mycologie/Colletotrichum/Colletotrichum.xlsx
+++ b/biology/Mycologie/Colletotrichum/Colletotrichum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colletotrichum est un genre de champignons ascomycètes de la famille des Glomerellaceae. Le stade sexué (téléomorphe) correspondant est Glomerella.
-Ce genre, qui comprend environ 600 espèces, est l'un des plus importants groupes de champignons phytopathogènes au niveau mondial. Ces champignons attaquent plus de 3 200 espèces de plantes monocotylédones et dicotylédones et sont responsables de nombreuses maladies cryptogamiques, notamment les anthracnoses[1].
+Ce genre, qui comprend environ 600 espèces, est l'un des plus importants groupes de champignons phytopathogènes au niveau mondial. Ces champignons attaquent plus de 3 200 espèces de plantes monocotylédones et dicotylédones et sont responsables de nombreuses maladies cryptogamiques, notamment les anthracnoses.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF :
 Blennorella Kirschst.
 Colletostroma Petr.
 Dicladium Ces.
@@ -550,9 +564,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (29 septembre 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (29 septembre 2014) :
 Colletotrichum acalyphae
 Colletotrichum acerbum
 Colletotrichum acutatum
@@ -853,7 +869,7 @@
 Colletotrichum walleri
 Colletotrichum xanthorrhoeae
 Colletotrichum yunnanense
-Selon Index Fungorum                                      (29 septembre 2014)[4] :
+Selon Index Fungorum                                      (29 septembre 2014) :
 Colletotrichum acaciae Gutner 1936
 Colletotrichum acaciae Urries 1952
 Colletotrichum acalyphae G.W. Wilson 1960
@@ -1041,9 +1057,11 @@
           <t>Liste des espèces, sous-espèces, variétés et non-classés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (29 septembre 2014)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (29 septembre 2014) :
 Colletotrichum acerbum
 Colletotrichum acutatum
 Colletotrichum aenigma
